--- a/data/lcoh_studies.xlsx
+++ b/data/lcoh_studies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrianod\Documents\PhD\Hydrogen_Gap\hydrogen_tracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D4964-263F-47FF-A0E3-3F1DFA1F75CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9FCAC-100D-4212-9DE6-44356732E566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{856D8AE4-9AF0-4931-BD18-7635C3225D77}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="87">
   <si>
     <t>Organisation</t>
   </si>
@@ -265,6 +265,27 @@
   </si>
   <si>
     <t>NPC NZ2050 Delivered Costs US Gulf Coast</t>
+  </si>
+  <si>
+    <t>CE Delft / TNO</t>
+  </si>
+  <si>
+    <t>Afnameverplichting groene waterstof</t>
+  </si>
+  <si>
+    <t>Netherlands Wind Offshore</t>
+  </si>
+  <si>
+    <t>CE Delft &amp; TNO Dutch Wind Offshore</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://ce.nl/publicaties/afnameverplichting-groene-waterstof/</t>
+  </si>
+  <si>
+    <t>page 47</t>
   </si>
 </sst>
 </file>
@@ -626,16 +647,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EE3688-1776-4826-9DDE-F2FDF9251108}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -1604,7 +1625,7 @@
         <v>9</v>
       </c>
       <c r="I24">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L24">
         <v>1.5</v>
@@ -1642,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L25">
         <f>1.5*0.12+2.5*0.15+3.5*0.21+4.5*0.19+5.5*0.15+6.5*0.13+7.5*0.05</f>
@@ -1681,7 +1702,7 @@
         <v>9</v>
       </c>
       <c r="I26">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L26">
         <v>7.5</v>
@@ -1738,6 +1759,44 @@
       </c>
       <c r="R27" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>2023</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>2023</v>
+      </c>
+      <c r="L28">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>86</v>
+      </c>
+      <c r="R28" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
